--- a/ormweb/static/src/assets/SampleTemplate/RA_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/RA_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\RiskTrac\orm\src\assets\SampleTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\RiskTrac\SE-GRC-RiskTrac\orm\src\trunk\web\src\assets\SampleTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4414581-E92C-4E0F-BBF9-2826728B3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0D6E0-F9DD-49DA-81F7-C28963CBBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAS tracker" sheetId="1" r:id="rId1"/>
@@ -363,85 +363,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11582400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1147763</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1612" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE06DD9-ADF2-4D85-8BFA-123FE745DAE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18923000" y="355600"/>
-          <a:ext cx="5872163" cy="2159000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -770,7 +691,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -953,7 +874,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="18" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ormweb/static/src/assets/SampleTemplate/RA_Template.xlsx
+++ b/ormweb/static/src/assets/SampleTemplate/RA_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\RiskTrac\SE-GRC-RiskTrac\orm\src\trunk\web\src\assets\SampleTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\RiskTrac\orm\src\assets\SampleTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0D6E0-F9DD-49DA-81F7-C28963CBBFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4414581-E92C-4E0F-BBF9-2826728B3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAS tracker" sheetId="1" r:id="rId1"/>
@@ -361,6 +361,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11582400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1147763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1612" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE06DD9-ADF2-4D85-8BFA-123FE745DAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18923000" y="355600"/>
+          <a:ext cx="5872163" cy="2159000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,7 +770,7 @@
   <dimension ref="B1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -874,6 +953,7 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="18" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
